--- a/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABCEAD00-BA18-438F-A7C3-AA0B7638FBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9F98D0-8A13-4EDC-AD94-84E67E6C0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6C00368-A2D2-43A6-9325-F22FAC98DB5E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E0FBA71-3E93-46C8-AFDB-56B2904B47E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>67,51%</t>
+    <t>68,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,7 +94,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,49%</t>
+    <t>31,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>82,03%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -139,13 +139,13 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>84,26%</t>
+    <t>81,42%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>15,74%</t>
+    <t>18,58%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -163,13 +163,13 @@
     <t>95,88%</t>
   </si>
   <si>
-    <t>79,28%</t>
+    <t>79,64%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>20,36%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -178,13 +178,13 @@
     <t>97,01%</t>
   </si>
   <si>
-    <t>84,18%</t>
+    <t>85,15%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>15,82%</t>
+    <t>14,85%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -193,67 +193,67 @@
     <t>85,41%</t>
   </si>
   <si>
-    <t>74,28%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>89,22%</t>
+    <t>89,85%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,78%</t>
+    <t>10,15%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -277,19 +277,19 @@
     <t>95,75%</t>
   </si>
   <si>
-    <t>86,83%</t>
+    <t>87,08%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>12,92%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -301,7 +301,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2015 (Tasa respuesta: 2,31%)</t>
@@ -310,13 +310,13 @@
     <t>66,77%</t>
   </si>
   <si>
-    <t>17,01%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>82,99%</t>
+    <t>83,02%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -340,67 +340,67 @@
     <t>93,3%</t>
   </si>
   <si>
-    <t>65,92%</t>
+    <t>72,34%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>34,08%</t>
+    <t>27,66%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>44,07%</t>
+    <t>44,39%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>55,93%</t>
+    <t>55,61%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>83,79%</t>
+    <t>83,42%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>16,21%</t>
+    <t>16,58%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>89,51%</t>
+    <t>88,38%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>10,49%</t>
+    <t>11,62%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675876AB-9F51-44D6-8DC6-3EEE85C91758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A0DB7-D73C-46F3-BBE4-4185A671514D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2289,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F286D5E-E552-4329-92CB-0F992377297F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356E41F5-8BF1-4A6C-A313-448FB902A807}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2566,7 +2566,7 @@
         <v>64</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2581,7 +2581,7 @@
         <v>64</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2612,13 +2612,13 @@
         <v>992</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2627,13 +2627,13 @@
         <v>992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,7 +2715,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -2730,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -2767,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5964CDA9-1327-4E23-9929-4D653D8C6D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DDC502-7B38-461A-98D4-24E4AAE81883}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9F98D0-8A13-4EDC-AD94-84E67E6C0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{230B6B59-AFBB-4EF1-A58F-07A8A9AF2871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E0FBA71-3E93-46C8-AFDB-56B2904B47E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{343B162E-0F90-4F14-9015-75F8914B311C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="119">
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>68,8%</t>
+    <t>68,98%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,7 +94,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,2%</t>
+    <t>31,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>82,03%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -139,13 +139,13 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>81,42%</t>
+    <t>85,24%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>18,58%</t>
+    <t>14,76%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -163,13 +163,13 @@
     <t>95,88%</t>
   </si>
   <si>
-    <t>79,64%</t>
+    <t>79,07%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>20,36%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -178,13 +178,13 @@
     <t>97,01%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>87,66%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>14,85%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -193,37 +193,37 @@
     <t>85,41%</t>
   </si>
   <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -235,9 +235,15 @@
     <t>96,28%</t>
   </si>
   <si>
+    <t>81,79%</t>
+  </si>
+  <si>
     <t>3,72%</t>
   </si>
   <si>
+    <t>18,21%</t>
+  </si>
+  <si>
     <t>93,64%</t>
   </si>
   <si>
@@ -247,13 +253,13 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>89,85%</t>
+    <t>89,17%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,15%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -277,46 +283,40 @@
     <t>95,75%</t>
   </si>
   <si>
-    <t>87,08%</t>
+    <t>85,05%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>12,92%</t>
+    <t>14,95%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2015 (Tasa respuesta: 2,31%)</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -340,67 +340,61 @@
     <t>93,3%</t>
   </si>
   <si>
-    <t>72,34%</t>
+    <t>72,48%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>27,66%</t>
+    <t>27,52%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>44,39%</t>
+    <t>43,78%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>88,38%</t>
+    <t>87,14%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>11,62%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
 </sst>
 </file>
@@ -812,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A0DB7-D73C-46F3-BBE4-4185A671514D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F66038-CDD9-44FD-BAAE-ECA20DBFE720}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2289,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356E41F5-8BF1-4A6C-A313-448FB902A807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DB44B3-C032-4645-9227-E5612A06CFA9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2566,7 +2560,7 @@
         <v>64</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2581,7 +2575,7 @@
         <v>64</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2612,13 +2606,13 @@
         <v>992</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2627,13 +2621,13 @@
         <v>992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,7 +2709,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -2730,7 +2724,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -2767,7 +2761,7 @@
         <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2782,7 +2776,7 @@
         <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,10 +2855,10 @@
         <v>42286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2876,10 +2870,10 @@
         <v>42286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -2910,13 +2904,13 @@
         <v>899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2925,13 +2919,13 @@
         <v>899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +3007,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -3028,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -3065,7 +3059,7 @@
         <v>29</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3080,7 +3074,7 @@
         <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>19</v>
@@ -3177,7 +3171,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>19</v>
@@ -3214,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3229,7 +3223,7 @@
         <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -3326,7 +3320,7 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -3363,7 +3357,7 @@
         <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3378,7 +3372,7 @@
         <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,10 +3451,10 @@
         <v>45776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3472,10 +3466,10 @@
         <v>45776</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3506,13 +3500,13 @@
         <v>2033</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3521,13 +3515,13 @@
         <v>2033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3600,13 @@
         <v>221064</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M28" s="7">
         <v>207</v>
@@ -3621,13 +3615,13 @@
         <v>221064</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3649,13 @@
         <v>3924</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3670,13 +3664,13 @@
         <v>3924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DDC502-7B38-461A-98D4-24E4AAE81883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612C5BE2-9FF3-4F49-9EB8-F85030473150}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3771,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,10 +3885,10 @@
         <v>3507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3906,10 +3900,10 @@
         <v>3507</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3940,7 +3934,7 @@
         <v>1746</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -3955,7 +3949,7 @@
         <v>1746</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
@@ -4785,10 +4779,10 @@
         <v>35332</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -4800,10 +4794,10 @@
         <v>35332</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -4834,13 +4828,13 @@
         <v>1928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4849,13 +4843,13 @@
         <v>1928</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,10 +4928,10 @@
         <v>40216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -4949,10 +4943,10 @@
         <v>40216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -4983,13 +4977,13 @@
         <v>981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4998,13 +4992,13 @@
         <v>981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5077,13 @@
         <v>143972</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -5098,13 +5092,13 @@
         <v>143972</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5126,13 @@
         <v>6354</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5147,13 +5141,13 @@
         <v>6354</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230B6B59-AFBB-4EF1-A58F-07A8A9AF2871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E75EB38-C3AD-458F-BE12-536BD3057022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{343B162E-0F90-4F14-9015-75F8914B311C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DBDB7D7-EC86-49C7-A513-0772F5841A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="121">
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -79,7 +79,7 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>68,98%</t>
+    <t>67,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,7 +94,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,02%</t>
+    <t>32,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,295 +106,301 @@
     <t>82,03%</t>
   </si>
   <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
+  </si>
+  <si>
     <t>66,77%</t>
   </si>
   <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>17,01%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>8,41%</t>
+    <t>83,79%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>16,21%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>87,14%</t>
+    <t>89,51%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>10,49%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
 </sst>
 </file>
@@ -806,7 +812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F66038-CDD9-44FD-BAAE-ECA20DBFE720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E39A077-6370-4A92-8D85-0B3009B040AF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2283,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DB44B3-C032-4645-9227-E5612A06CFA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB8288-B188-4A5E-873A-172A0A2904F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2709,7 +2715,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -2724,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -2761,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2776,7 +2782,7 @@
         <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,10 +2861,10 @@
         <v>42286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2870,10 +2876,10 @@
         <v>42286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -2904,13 +2910,13 @@
         <v>899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2919,13 +2925,13 @@
         <v>899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -3022,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -3059,7 +3065,7 @@
         <v>29</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3074,7 +3080,7 @@
         <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>19</v>
@@ -3171,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>19</v>
@@ -3208,7 +3214,7 @@
         <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3223,7 +3229,7 @@
         <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -3320,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -3357,7 +3363,7 @@
         <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3372,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,10 +3457,10 @@
         <v>45776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3466,10 +3472,10 @@
         <v>45776</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3500,13 +3506,13 @@
         <v>2033</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3515,13 +3521,13 @@
         <v>2033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3606,13 @@
         <v>221064</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M28" s="7">
         <v>207</v>
@@ -3615,13 +3621,13 @@
         <v>221064</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3655,13 @@
         <v>3924</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3664,13 +3670,13 @@
         <v>3924</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612C5BE2-9FF3-4F49-9EB8-F85030473150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6FB432-A799-4F5A-8202-443780C47648}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,10 +3891,10 @@
         <v>3507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3900,10 +3906,10 @@
         <v>3507</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3934,7 +3940,7 @@
         <v>1746</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -3949,7 +3955,7 @@
         <v>1746</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
@@ -4779,10 +4785,10 @@
         <v>35332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -4794,10 +4800,10 @@
         <v>35332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -4828,13 +4834,13 @@
         <v>1928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4843,13 +4849,13 @@
         <v>1928</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,10 +4934,10 @@
         <v>40216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -4943,10 +4949,10 @@
         <v>40216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -4977,13 +4983,13 @@
         <v>981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4992,13 +4998,13 @@
         <v>981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5083,13 @@
         <v>143972</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -5092,13 +5098,13 @@
         <v>143972</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5132,13 @@
         <v>6354</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5141,13 +5147,13 @@
         <v>6354</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
